--- a/storage/macros/cocina/Ejemplo2.xlsx
+++ b/storage/macros/cocina/Ejemplo2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Computacion\Cocina\Cocina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\xampp\htdocs\localUnal\storage\macros\cocina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,40 +33,40 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>ML150012</t>
-  </si>
-  <si>
-    <t>G4506</t>
+    <t>E2671</t>
+  </si>
+  <si>
+    <t>T1502015</t>
+  </si>
+  <si>
+    <t>TS03981</t>
+  </si>
+  <si>
+    <t>BSCO0051</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>AIN0L10</t>
   </si>
   <si>
-    <t>E2671</t>
-  </si>
-  <si>
-    <t>M0P022</t>
-  </si>
-  <si>
-    <t>T1502015</t>
-  </si>
-  <si>
-    <t>TS03981</t>
-  </si>
-  <si>
-    <t>BSCO0051</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
     <t>MG023</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>#02</t>
+    <t>RH150010</t>
+  </si>
+  <si>
+    <t>G4504</t>
+  </si>
+  <si>
+    <t>M0F015</t>
+  </si>
+  <si>
+    <t>#03</t>
   </si>
 </sst>
 </file>
@@ -102,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +388,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:C17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -402,15 +403,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>125.13100000000001</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -418,7 +419,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -426,7 +427,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -434,50 +435,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>156</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>10.705</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,19 +499,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/macros/cocina/Ejemplo2.xlsx
+++ b/storage/macros/cocina/Ejemplo2.xlsx
@@ -45,28 +45,28 @@
     <t>BSCO0051</t>
   </si>
   <si>
-    <t>SP2</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>AIN0L10</t>
-  </si>
-  <si>
     <t>MG023</t>
   </si>
   <si>
+    <t>G4506</t>
+  </si>
+  <si>
     <t>RH150010</t>
   </si>
   <si>
-    <t>G4504</t>
-  </si>
-  <si>
     <t>M0F015</t>
   </si>
   <si>
-    <t>#03</t>
+    <t>AIN0L11</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>#02</t>
   </si>
 </sst>
 </file>
@@ -403,15 +403,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>193</v>
+        <v>163.37249999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -435,10 +435,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,23 +462,23 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>69</v>
+        <v>14.904999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,12 +506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
